--- a/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5276A37-7B59-4590-A535-A782CA52C537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95700AF5-DEE0-4923-A27C-81854F6CA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BDAD835-F471-41FC-BB7D-4ED7323505EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EBBD2E4-E891-4DA7-A8C3-62D1C8C739B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>5,82%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
   </si>
   <si>
     <t>Una por semana</t>
@@ -104,28 +104,28 @@
     <t>48,34%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
   </si>
   <si>
     <t>47,24%</t>
   </si>
   <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
@@ -134,28 +134,28 @@
     <t>45,84%</t>
   </si>
   <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
   </si>
   <si>
     <t>46,02%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,478 +167,475 @@
     <t>10,89%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>7,28%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
   </si>
   <si>
     <t>48,03%</t>
   </si>
   <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>52,9%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>42,12%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
   </si>
   <si>
     <t>44,23%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
   </si>
   <si>
     <t>48,09%</t>
   </si>
   <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
     <t>47,8%</t>
   </si>
   <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1053,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E42558-CF24-4B72-A654-CCF64AAB2A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815642B-8EFD-4411-8E7A-47060C236D6A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1640,13 +1637,13 @@
         <v>244942</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>330</v>
@@ -1655,13 +1652,13 @@
         <v>242661</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>564</v>
@@ -1670,13 +1667,13 @@
         <v>487602</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1688,13 @@
         <v>267068</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
@@ -1706,13 +1703,13 @@
         <v>267446</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -1721,13 +1718,13 @@
         <v>534514</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1783,7 +1780,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1795,13 +1792,13 @@
         <v>60495</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>98</v>
@@ -1810,13 +1807,13 @@
         <v>63221</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -1825,13 +1822,13 @@
         <v>123716</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,13 +1843,13 @@
         <v>258627</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
@@ -1861,13 +1858,13 @@
         <v>305584</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
@@ -1876,13 +1873,13 @@
         <v>564210</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1894,13 @@
         <v>401957</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>625</v>
@@ -1912,13 +1909,13 @@
         <v>377196</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>992</v>
@@ -1927,13 +1924,13 @@
         <v>779152</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,7 +1986,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2001,13 +1998,13 @@
         <v>48678</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
@@ -2016,13 +2013,13 @@
         <v>55634</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
@@ -2031,13 +2028,13 @@
         <v>104312</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2052,13 +2049,13 @@
         <v>284150</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
@@ -2067,13 +2064,13 @@
         <v>254033</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>701</v>
@@ -2082,13 +2079,13 @@
         <v>538184</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2103,13 +2100,13 @@
         <v>265218</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>504</v>
@@ -2118,13 +2115,13 @@
         <v>286235</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
@@ -2133,13 +2130,13 @@
         <v>551454</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2234,13 @@
         <v>174518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2255,13 @@
         <v>326835</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>782</v>
@@ -2273,13 +2270,13 @@
         <v>431442</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>1265</v>
@@ -2288,13 +2285,13 @@
         <v>758277</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2306,13 @@
         <v>295027</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>720</v>
@@ -2324,13 +2321,13 @@
         <v>486393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>1159</v>
@@ -2339,13 +2336,13 @@
         <v>781421</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2410,13 @@
         <v>291007</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>530</v>
@@ -2428,10 +2425,10 @@
         <v>361728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>181</v>
@@ -2515,7 +2512,7 @@
         <v>1600992</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>194</v>
@@ -2530,13 +2527,13 @@
         <v>1824372</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="M30" s="7">
         <v>4203</v>
@@ -2545,13 +2542,13 @@
         <v>3425364</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,7 +2604,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95700AF5-DEE0-4923-A27C-81854F6CA9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{107D7C80-7CB0-40AF-80F8-375404023358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EBBD2E4-E891-4DA7-A8C3-62D1C8C739B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1F4D9ED1-2550-4E1F-9B40-05A113EEE3CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="232">
   <si>
     <t>Población según el número de veces a la semana que consume los vegetales cocinados, la pasta, el arroz u otros platos aderezados con una salsa de tomate, ajo, cebolla o puerro elaborada a fuego lento con aceite de oliva (sofrito) en 2023 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -65,577 +65,670 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
   </si>
   <si>
     <t>Una por semana</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>Dos o más por semana</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>54,24%</t>
   </si>
   <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>39,87%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>48,05%</t>
   </si>
   <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>57,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1050,8 +1143,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5815642B-8EFD-4411-8E7A-47060C236D6A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05BE5DE7-19CE-498C-AEE0-F18371546618}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1171,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>21976</v>
+        <v>23508</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1186,7 +1279,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>27523</v>
+        <v>24428</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1201,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>49499</v>
+        <v>47936</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1222,7 +1315,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="7">
-        <v>182570</v>
+        <v>180154</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1237,7 +1330,7 @@
         <v>92</v>
       </c>
       <c r="I5" s="7">
-        <v>159524</v>
+        <v>134774</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1252,7 +1345,7 @@
         <v>175</v>
       </c>
       <c r="N5" s="7">
-        <v>342094</v>
+        <v>314928</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1273,7 +1366,7 @@
         <v>81</v>
       </c>
       <c r="D6" s="7">
-        <v>173132</v>
+        <v>196325</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1288,7 +1381,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>159433</v>
+        <v>145904</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1303,7 +1396,7 @@
         <v>181</v>
       </c>
       <c r="N6" s="7">
-        <v>332565</v>
+        <v>342229</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1324,7 +1417,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1339,7 +1432,7 @@
         <v>204</v>
       </c>
       <c r="I7" s="7">
-        <v>346480</v>
+        <v>305106</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1354,7 +1447,7 @@
         <v>376</v>
       </c>
       <c r="N7" s="7">
-        <v>724158</v>
+        <v>705093</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1377,7 +1470,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>46659</v>
+        <v>49215</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1392,7 +1485,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>36273</v>
+        <v>33401</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1407,7 +1500,7 @@
         <v>57</v>
       </c>
       <c r="N8" s="7">
-        <v>82932</v>
+        <v>82616</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1428,7 +1521,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="7">
-        <v>183148</v>
+        <v>171152</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1443,7 +1536,7 @@
         <v>204</v>
       </c>
       <c r="I9" s="7">
-        <v>214635</v>
+        <v>190016</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1458,7 +1551,7 @@
         <v>336</v>
       </c>
       <c r="N9" s="7">
-        <v>397783</v>
+        <v>361167</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1479,7 +1572,7 @@
         <v>144</v>
       </c>
       <c r="D10" s="7">
-        <v>198589</v>
+        <v>203180</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1494,7 +1587,7 @@
         <v>225</v>
       </c>
       <c r="I10" s="7">
-        <v>247670</v>
+        <v>288087</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1509,7 +1602,7 @@
         <v>369</v>
       </c>
       <c r="N10" s="7">
-        <v>446258</v>
+        <v>491267</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1530,7 +1623,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1545,7 +1638,7 @@
         <v>460</v>
       </c>
       <c r="I11" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1560,7 +1653,7 @@
         <v>762</v>
       </c>
       <c r="N11" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1583,7 +1676,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>45242</v>
+        <v>44077</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1598,7 +1691,7 @@
         <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>72516</v>
+        <v>67806</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1613,7 +1706,7 @@
         <v>138</v>
       </c>
       <c r="N12" s="7">
-        <v>117758</v>
+        <v>111883</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1634,13 +1727,13 @@
         <v>234</v>
       </c>
       <c r="D13" s="7">
-        <v>244942</v>
+        <v>229628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
@@ -1649,7 +1742,7 @@
         <v>330</v>
       </c>
       <c r="I13" s="7">
-        <v>242661</v>
+        <v>219827</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>81</v>
@@ -1664,7 +1757,7 @@
         <v>564</v>
       </c>
       <c r="N13" s="7">
-        <v>487602</v>
+        <v>449455</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>84</v>
@@ -1685,7 +1778,7 @@
         <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>267068</v>
+        <v>262633</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>87</v>
@@ -1700,7 +1793,7 @@
         <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>267446</v>
+        <v>254016</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>90</v>
@@ -1715,7 +1808,7 @@
         <v>688</v>
       </c>
       <c r="N14" s="7">
-        <v>534514</v>
+        <v>516648</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>93</v>
@@ -1736,7 +1829,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1751,7 +1844,7 @@
         <v>844</v>
       </c>
       <c r="I15" s="7">
-        <v>582623</v>
+        <v>541648</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1766,7 +1859,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1139874</v>
+        <v>1077986</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1789,7 +1882,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>60495</v>
+        <v>62776</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>97</v>
@@ -1804,7 +1897,7 @@
         <v>98</v>
       </c>
       <c r="I16" s="7">
-        <v>63221</v>
+        <v>59184</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -1819,7 +1912,7 @@
         <v>153</v>
       </c>
       <c r="N16" s="7">
-        <v>123716</v>
+        <v>121959</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -1828,7 +1921,7 @@
         <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,46 +1933,46 @@
         <v>241</v>
       </c>
       <c r="D17" s="7">
-        <v>258627</v>
+        <v>236887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>416</v>
       </c>
       <c r="I17" s="7">
-        <v>305584</v>
+        <v>298327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>657</v>
       </c>
       <c r="N17" s="7">
-        <v>564210</v>
+        <v>535214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,46 +1984,46 @@
         <v>367</v>
       </c>
       <c r="D18" s="7">
-        <v>401957</v>
+        <v>585322</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H18" s="7">
         <v>625</v>
       </c>
       <c r="I18" s="7">
-        <v>377196</v>
+        <v>354171</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M18" s="7">
         <v>992</v>
       </c>
       <c r="N18" s="7">
-        <v>779152</v>
+        <v>939493</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,7 +2035,7 @@
         <v>663</v>
       </c>
       <c r="D19" s="7">
-        <v>721079</v>
+        <v>884985</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1957,7 +2050,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>746000</v>
+        <v>711681</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1972,7 +2065,7 @@
         <v>1802</v>
       </c>
       <c r="N19" s="7">
-        <v>1467079</v>
+        <v>1596666</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1986,7 +2079,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1995,37 +2088,37 @@
         <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>48678</v>
+        <v>46388</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>93</v>
       </c>
       <c r="I20" s="7">
-        <v>55634</v>
+        <v>51754</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="M20" s="7">
         <v>145</v>
       </c>
       <c r="N20" s="7">
-        <v>104312</v>
+        <v>98142</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>130</v>
@@ -2034,7 +2127,7 @@
         <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,46 +2139,46 @@
         <v>298</v>
       </c>
       <c r="D21" s="7">
-        <v>284150</v>
+        <v>259835</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>403</v>
       </c>
       <c r="I21" s="7">
-        <v>254033</v>
+        <v>228872</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>701</v>
       </c>
       <c r="N21" s="7">
-        <v>538184</v>
+        <v>488706</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,46 +2190,46 @@
         <v>310</v>
       </c>
       <c r="D22" s="7">
-        <v>265218</v>
+        <v>252981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>504</v>
       </c>
       <c r="I22" s="7">
-        <v>286235</v>
+        <v>266199</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M22" s="7">
         <v>814</v>
       </c>
       <c r="N22" s="7">
-        <v>551454</v>
+        <v>519180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,7 +2241,7 @@
         <v>660</v>
       </c>
       <c r="D23" s="7">
-        <v>598047</v>
+        <v>559203</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2163,7 +2256,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595902</v>
+        <v>546825</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2178,7 +2271,7 @@
         <v>1660</v>
       </c>
       <c r="N23" s="7">
-        <v>1193950</v>
+        <v>1106028</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2192,55 +2285,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>67956</v>
+        <v>28742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="I24" s="7">
-        <v>106562</v>
+        <v>45190</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="N24" s="7">
-        <v>174518</v>
+        <v>73932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,49 +2342,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>483</v>
+        <v>256</v>
       </c>
       <c r="D25" s="7">
-        <v>326835</v>
+        <v>161542</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
-        <v>782</v>
+        <v>362</v>
       </c>
       <c r="I25" s="7">
-        <v>431442</v>
+        <v>178381</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
-        <v>1265</v>
+        <v>618</v>
       </c>
       <c r="N25" s="7">
-        <v>758277</v>
+        <v>339923</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2393,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>439</v>
+        <v>262</v>
       </c>
       <c r="D26" s="7">
-        <v>295027</v>
+        <v>172772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>720</v>
+        <v>374</v>
       </c>
       <c r="I26" s="7">
-        <v>486393</v>
+        <v>384428</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>1159</v>
+        <v>636</v>
       </c>
       <c r="N26" s="7">
-        <v>781421</v>
+        <v>557200</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1017</v>
+        <v>563</v>
       </c>
       <c r="D27" s="7">
-        <v>689818</v>
+        <v>363056</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2366,10 +2459,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1703</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1024398</v>
+        <v>607999</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2381,10 +2474,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2720</v>
+        <v>1389</v>
       </c>
       <c r="N27" s="7">
-        <v>1714216</v>
+        <v>971055</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2398,55 +2491,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="D28" s="7">
-        <v>291007</v>
+        <v>35453</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
-        <v>530</v>
+        <v>111</v>
       </c>
       <c r="I28" s="7">
-        <v>361728</v>
+        <v>53003</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M28" s="7">
-        <v>809</v>
+        <v>161</v>
       </c>
       <c r="N28" s="7">
-        <v>652735</v>
+        <v>88456</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2548,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1471</v>
+        <v>227</v>
       </c>
       <c r="D29" s="7">
-        <v>1480272</v>
+        <v>136875</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
-        <v>2227</v>
+        <v>420</v>
       </c>
       <c r="I29" s="7">
-        <v>1607879</v>
+        <v>204637</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
-        <v>3698</v>
+        <v>647</v>
       </c>
       <c r="N29" s="7">
-        <v>3088151</v>
+        <v>341512</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,49 +2599,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1610</v>
+        <v>177</v>
       </c>
       <c r="D30" s="7">
-        <v>1600992</v>
+        <v>108019</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="H30" s="7">
-        <v>2593</v>
+        <v>346</v>
       </c>
       <c r="I30" s="7">
-        <v>1824372</v>
+        <v>166473</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>4203</v>
+        <v>523</v>
       </c>
       <c r="N30" s="7">
-        <v>3425364</v>
+        <v>274492</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,63 +2650,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>454</v>
+      </c>
+      <c r="D31" s="7">
+        <v>280347</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>877</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424113</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1331</v>
+      </c>
+      <c r="N31" s="7">
+        <v>704459</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>279</v>
+      </c>
+      <c r="D32" s="7">
+        <v>290159</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" s="7">
+        <v>530</v>
+      </c>
+      <c r="I32" s="7">
+        <v>334765</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="7">
+        <v>809</v>
+      </c>
+      <c r="N32" s="7">
+        <v>624924</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1471</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1376073</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="7">
+        <v>2227</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1454832</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="7">
+        <v>3698</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2830905</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1781231</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="7">
+        <v>2593</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1859278</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M34" s="7">
+        <v>4203</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3640508</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3360</v>
       </c>
-      <c r="D31" s="7">
-        <v>3372271</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3447463</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5350</v>
       </c>
-      <c r="I31" s="7">
-        <v>3793980</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3648875</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8710</v>
       </c>
-      <c r="N31" s="7">
-        <v>7166250</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>200</v>
+      <c r="N35" s="7">
+        <v>7096338</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
